--- a/xlsx/Cadillac_intext.xlsx
+++ b/xlsx/Cadillac_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>Cadillac</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_Cadillac</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_Cadillac</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>部門</t>
+    <t>部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GM</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>通用汽車公司</t>
+    <t>通用汽车公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>別克</t>
+    <t>别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Buick</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/V8%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>V8發動機</t>
+    <t>V8发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E7%A6%8F%E7%89%B9</t>
@@ -143,79 +143,79 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福特汽車公司</t>
+    <t>福特汽车公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%8C%B2%E6%91%A9%E6%AF%94</t>
   </si>
   <si>
-    <t>奧茲摩比</t>
+    <t>奥兹摩比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E8%98%AD</t>
   </si>
   <si>
-    <t>雪佛蘭</t>
+    <t>雪佛兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E6%81%90%E6%85%8C</t>
   </si>
   <si>
-    <t>經濟大恐慌</t>
+    <t>经济大恐慌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>朝鮮戰爭</t>
+    <t>朝鲜战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>越南戰爭</t>
+    <t>越南战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E8%A6%96%E9%8F%A1</t>
   </si>
   <si>
-    <t>夜視鏡</t>
+    <t>夜视镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E5%B0%8E%E8%88%AA</t>
   </si>
   <si>
-    <t>衛星導航</t>
+    <t>卫星导航</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E9%9F%B3%E6%A9%9F</t>
   </si>
   <si>
-    <t>收音機</t>
+    <t>收音机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%BF%AA%E6%8B%89%E5%85%8BCTS</t>
   </si>
   <si>
-    <t>凱迪拉克CTS</t>
+    <t>凯迪拉克CTS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%BF%AA%E6%8B%89%E5%85%8BXLR</t>
   </si>
   <si>
-    <t>凱迪拉克XLR</t>
+    <t>凯迪拉克XLR</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SUV</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B2%B8%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>次貸危機</t>
+    <t>次贷危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E8%BF%AA%E6%8B%89%E5%85%8BSTS</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E9%A6%AC</t>
   </si>
   <si>
-    <t>寶馬</t>
+    <t>宝马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>賓士</t>
+    <t>宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>國產汽車</t>
+    <t>国产汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%95%E9%9A%86%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>裕隆汽車</t>
+    <t>裕隆汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BD%A6%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%AF%B6</t>
   </si>
   <si>
-    <t>歐寶</t>
+    <t>欧宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E5%85%B0Corvette</t>
@@ -323,31 +323,22 @@
     <t>https://en.wikipedia.org/wiki/List_of_Cadillac_vehicles</t>
   </si>
   <si>
-    <t>凱迪拉克汽車清單</t>
+    <t>凯迪拉克汽车清单</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>通用汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E5%85%8B</t>
   </si>
   <si>
-    <t>别克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E5%85%B0</t>
   </si>
   <si>
-    <t>雪佛兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/GMC_(%E6%B1%BD%E8%BB%8A)</t>
   </si>
   <si>
-    <t>GMC (汽車)</t>
+    <t>GMC (汽车)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E9%A1%BF%E6%B1%BD%E8%BD%A6</t>
@@ -359,19 +350,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A6%8F%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>百福汽車</t>
+    <t>百福汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%84%AA%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>吉優汽車</t>
+    <t>吉优汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%8D%E9%A6%AC_(%E6%B0%91%E7%94%A8%E6%B1%BD%E8%BB%8A)</t>
   </si>
   <si>
-    <t>悍馬 (民用汽車)</t>
+    <t>悍马 (民用汽车)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%9E%E8%92%82%E5%85%8B</t>
@@ -395,13 +386,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%9A%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>薩博汽車</t>
+    <t>萨博汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%B3%80%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>佛賀汽車</t>
+    <t>佛贺汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B1%BD%E9%80%9A%E7%94%A8%E4%BA%94%E8%8F%B1</t>
@@ -2308,7 +2299,7 @@
         <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -2334,10 +2325,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2363,10 +2354,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2392,10 +2383,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2421,10 +2412,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2450,10 +2441,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2479,10 +2470,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2508,10 +2499,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2537,10 +2528,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2566,10 +2557,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2595,10 +2586,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2624,10 +2615,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2653,10 +2644,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2682,10 +2673,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2711,10 +2702,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2740,10 +2731,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2769,10 +2760,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2798,10 +2789,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2827,10 +2818,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2856,10 +2847,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2885,10 +2876,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2914,10 +2905,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2943,10 +2934,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -2972,10 +2963,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
